--- a/biology/Botanique/Leucanthemum/Leucanthemum.xlsx
+++ b/biology/Botanique/Leucanthemum/Leucanthemum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leucanthemum est un genre de plantes à fleurs de la famille des Asteraceae. C'est notamment le genre de la Marguerite commune (Leucanthemum vulgare). Il comprend une cinquantaine d'espèces, toutes originaires d'Eurasie, mais certaines sont naturalisées un peu partout dans le monde.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des plantes herbacées, vivaces. L'indumentum est absent ou constitué de simples poils basifiés. Les feuilles sont alternes, à marge entière, dentelée ou divisée. Les inflorescences sont en cyme, lâches, à sommet plus ou moins plat, parfois réduites à un seul capitule. Le capitule est pédonculé, hétérogame, radié. Les involucres sont coryliformes. Les phyllaires sont disposées en trois ou quatre rangs. Le réceptacle est convexe, parfois conique. Les fleurs marginales sont sur un rang, femelles, fertiles ; la lamelle est blanche ou rose, rarement jaune. Les fleurs du disque sont nombreuses, jaunes, bisexuées ; la corolle est tubulaire, l'extrémité pentalobée. Les bases des anthères sont obtuses ; l'appendice apical est ovale-lancéolé. Les branches du style sont linéaires, l'apex tronqué. Les fruits sont des akènes à dix nervures, projetées ou non jusqu'au bord apical[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des plantes herbacées, vivaces. L'indumentum est absent ou constitué de simples poils basifiés. Les feuilles sont alternes, à marge entière, dentelée ou divisée. Les inflorescences sont en cyme, lâches, à sommet plus ou moins plat, parfois réduites à un seul capitule. Le capitule est pédonculé, hétérogame, radié. Les involucres sont coryliformes. Les phyllaires sont disposées en trois ou quatre rangs. Le réceptacle est convexe, parfois conique. Les fleurs marginales sont sur un rang, femelles, fertiles ; la lamelle est blanche ou rose, rarement jaune. Les fleurs du disque sont nombreuses, jaunes, bisexuées ; la corolle est tubulaire, l'extrémité pentalobée. Les bases des anthères sont obtuses ; l'appendice apical est ovale-lancéolé. Les branches du style sont linéaires, l'apex tronqué. Les fruits sont des akènes à dix nervures, projetées ou non jusqu'au bord apical.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (6 mai 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (6 mai 2021) :
 Leucanthemum adustum (W.D.J.Koch) Gremli
 Leucanthemum aligulatum Vogt
 Leucanthemum ×aramisii Flor.Wagner, Vogt &amp; Oberpr.
